--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B1 Skjema.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B1 Skjema.xlsx
@@ -1508,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB75EB6C-69B9-4DC0-9ED8-3B2A807E6CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA150B-7017-44E4-91CE-A26E95E764E4}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B1 Skjema.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B1 Skjema.xlsx
@@ -1508,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA150B-7017-44E4-91CE-A26E95E764E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AF4666-9D2C-465B-96EF-0EECB566B9DB}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B1 Skjema.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-B1 Skjema.xlsx
@@ -1508,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AF4666-9D2C-465B-96EF-0EECB566B9DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC0492-DF45-4913-A63C-C48850B78776}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
